--- a/biology/Microbiologie/Astomatida/Astomatida.xlsx
+++ b/biology/Microbiologie/Astomatida/Astomatida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astomatia
 Les Astomatida, uniques représentants de la sous-classe des Astomatia, sont un ordre de Ciliés de la classe des Oligohymenophorea.
@@ -512,16 +524,18 @@
           <t>Liste des familles et genres non-classés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (30 septembre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (30 septembre 2023) :
 Anoplophryidae Cépède, 1910
 Buetschliellidae de Puytorac in Corliss, 1979
 Coelosomidiidae Corliss, 1961
 Haptophryidae Cépède, 1923
 Maupasellidae
 Radiophryidae de Puytorac, 1972
-Selon GBIF       (29 juillet 2023)[2] :
+Selon GBIF       (29 juillet 2023) :
 Anoplophryidae Cépède, 1910
 Archiastomatidae Foissner, 1976
 Buetschliellidae de Puytorac, in Corliss, 1979
@@ -563,9 +577,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Astomatida Schewiakoff, 1896[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Astomatida Schewiakoff, 1896.
 </t>
         </is>
       </c>
